--- a/xlsx/C-17运输机_intext.xlsx
+++ b/xlsx/C-17运输机_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
   <si>
     <t>C-17运输机</t>
   </si>
@@ -29,13 +29,13 @@
     <t>美国空军</t>
   </si>
   <si>
-    <t>政策_政策_美國_C-17运输机</t>
+    <t>政策_政策_美国_C-17运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%94%A8%E8%88%AA%E7%A9%BA%E9%A3%9B%E8%A1%8C%E5%99%A8</t>
   </si>
   <si>
-    <t>軍用航空飛行器</t>
+    <t>军用航空飞行器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%85%8B%E5%94%90%E7%BA%B3-%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%E5%85%AC%E5%8F%B8</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%94%E6%9E%B6</t>
   </si>
   <si>
-    <t>擔架</t>
+    <t>担架</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%A4%A7%E8%B5%B7%E9%A3%9E%E9%87%8D%E9%87%8F</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>航空發動機</t>
+    <t>航空发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%83%A0</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E6%89%87%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>渦輪扇發動機</t>
+    <t>涡轮扇发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%8A%9B</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BF%BC%E8%B2%A0%E8%8D%B7</t>
   </si>
   <si>
-    <t>翼負荷</t>
+    <t>翼负荷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E9%87%8D%E6%AF%94</t>
@@ -191,27 +191,21 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國空軍</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%95%A5</t>
   </si>
   <si>
-    <t>戰略</t>
+    <t>战略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>運輸機</t>
+    <t>运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
   </si>
   <si>
@@ -227,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>軍事基地</t>
+    <t>军事基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E6%9C%AF</t>
@@ -239,9 +233,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E8%BE%93%E6%9C%BA</t>
   </si>
   <si>
-    <t>运输机</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%A8</t>
   </si>
   <si>
@@ -299,13 +290,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%BB%8A</t>
   </si>
   <si>
-    <t>卡車</t>
+    <t>卡车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M1%E8%89%BE%E5%B8%83%E8%98%AD</t>
   </si>
   <si>
-    <t>M1艾布蘭</t>
+    <t>M1艾布兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AH-64</t>
@@ -317,13 +308,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%89%98%E8%AB%BE%E5%A4%ABAn-124</t>
   </si>
   <si>
-    <t>安托諾夫An-124</t>
+    <t>安托诺夫An-124</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C-5%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>C-5運輸機</t>
+    <t>C-5运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90-20</t>
@@ -341,13 +332,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%89%98%E8%AB%BE%E5%A4%ABAn-70</t>
   </si>
   <si>
-    <t>安托諾夫An-70</t>
+    <t>安托诺夫An-70</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/XC-2%E9%81%8B%E8%BC%B8%E6%A9%9F_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>XC-2運輸機 (日本)</t>
+    <t>XC-2运输机 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E5%B7%B4%E5%A3%ABA400M</t>
@@ -359,25 +350,25 @@
     <t>https://zh.wikipedia.org/wiki/C-130%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>C-130運輸機</t>
+    <t>C-130运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%87%E5%AE%B6%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>英國皇家空軍</t>
+    <t>英国皇家空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>皇家澳大利亞空軍</t>
+    <t>皇家澳大利亚空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E8%8C%B2%E8%AB%BE%E9%A0%93%E7%9A%87%E5%AE%B6%E7%A9%BA%E8%BB%8D%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>布萊茲諾頓皇家空軍基地</t>
+    <t>布莱兹诺顿皇家空军基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C-17</t>
@@ -407,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A</t>
   </si>
   <si>
-    <t>海軍陸戰隊</t>
+    <t>海军陆战队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E5%B8%8C%E5%BE%B7</t>
@@ -485,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伊拉克戰爭</t>
+    <t>伊拉克战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E7%9A%87%E5%AE%B6%E7%A9%BA%E5%86%9B</t>
@@ -497,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E7%9A%87%E5%AE%B6%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>加拿大皇家空軍</t>
+    <t>加拿大皇家空军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/429_Transport_Squadron</t>
@@ -515,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>印度空軍</t>
+    <t>印度空军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/No._99_Squadron_RAF</t>
@@ -539,67 +530,67 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>戰鬥機</t>
+    <t>战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%88%AA%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國陸軍航空軍</t>
+    <t>美国陆军航空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/XF-85%E5%B0%8F%E9%AC%BC%E5%BC%8F%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>XF-85小鬼式戰鬥機</t>
+    <t>XF-85小鬼式战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/XF-88%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>XF-88戰鬥機</t>
+    <t>XF-88战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-101%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-101戰鬥機</t>
+    <t>F-101战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-4%E5%B9%BD%E9%9D%88II%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-4幽靈II戰鬥機</t>
+    <t>F-4幽灵II战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-15%E9%B7%B9%E5%BC%8F%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-15鷹式戰鬥機</t>
+    <t>F-15鹰式战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-15E%E6%89%93%E6%93%8A%E9%B7%B9%E5%BC%8F%E6%88%B0%E9%AC%A5%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-15E打擊鷹式戰鬥轟炸機</t>
+    <t>F-15E打击鹰式战斗轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/YF-23%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>YF-23戰鬥機</t>
+    <t>YF-23战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國海軍</t>
+    <t>美国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國海軍陸戰隊</t>
+    <t>美国海军陆战队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F2H_Banshee</t>
@@ -611,13 +602,13 @@
     <t>https://zh.wikipedia.org/wiki/F/A-18%E9%BB%83%E8%9C%82%E5%BC%8F%E6%88%B0%E9%AC%A5%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>F/A-18黃蜂式戰鬥攻擊機</t>
+    <t>F/A-18黄蜂式战斗攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F/A-18E/F%E8%B6%85%E7%B4%9A%E5%A4%A7%E9%BB%83%E8%9C%82%E5%BC%8F%E6%89%93%E6%93%8A%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F/A-18E/F超級大黃蜂式打擊戰鬥機</t>
+    <t>F/A-18E/F超级大黄蜂式打击战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-15J%E6%88%98%E6%96%97%E6%9C%BA</t>
@@ -629,37 +620,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>攻擊機</t>
+    <t>攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A-4%E5%A4%A9%E9%B7%B9%E5%BC%8F%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>A-4天鷹式攻擊機</t>
+    <t>A-4天鹰式攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AV-8%E7%8D%B5%E9%B7%B9II%E5%BC%8F%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>AV-8獵鷹II式攻擊機</t>
+    <t>AV-8猎鹰II式攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A-12%E5%BE%A9%E4%BB%87%E8%80%85II%E5%BC%8F%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>A-12復仇者II式攻擊機</t>
+    <t>A-12复仇者II式攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A-4G%E5%A4%A9%E9%B7%B9%E5%BC%8F%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>A-4G天鷹式攻擊機</t>
+    <t>A-4G天鹰式攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%B7%B4%E6%A9%9F</t>
   </si>
   <si>
-    <t>教練機</t>
+    <t>教练机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AFDC-9</t>
@@ -671,31 +662,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>直升機</t>
+    <t>直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MD_500%E9%98%B2%E8%A1%9B%E8%80%85%E5%BC%8F%E7%9B%B4%E6%98%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>MD 500防衛者式直昇機</t>
+    <t>MD 500防卫者式直昇机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E4%BA%BA%E9%A3%9B%E8%A1%8C%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>無人飛行載具</t>
+    <t>无人飞行载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>試驗機</t>
+    <t>试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>太空載具</t>
+    <t>太空载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NASA</t>
@@ -713,19 +704,19 @@
     <t>https://zh.wikipedia.org/wiki/P-26%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>P-26戰鬥機</t>
+    <t>P-26战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-22%E7%8C%9B%E7%A6%BD%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-22猛禽戰鬥機</t>
+    <t>F-22猛禽战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AV-8%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>AV-8攻擊機</t>
+    <t>AV-8攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-15SE%E6%B2%89%E9%BB%98%E9%B9%B0%E5%BC%8F%E6%88%98%E6%96%97%E6%9C%BA</t>
@@ -737,19 +728,19 @@
     <t>https://zh.wikipedia.org/wiki/B-17%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-17轟炸機</t>
+    <t>B-17轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-29%E8%B6%85%E7%B4%9A%E5%A0%A1%E5%A3%98%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-29超級堡壘轟炸機</t>
+    <t>B-29超级堡垒轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-47%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-47轟炸機</t>
+    <t>B-47轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-50%E8%B6%85%E7%BA%A7%E5%A0%A1%E5%9E%92%E8%BD%B0%E7%82%B8%E6%9C%BA</t>
@@ -761,31 +752,31 @@
     <t>https://zh.wikipedia.org/wiki/B-52%E5%90%8C%E6%BA%AB%E5%B1%A4%E5%A0%A1%E5%A3%98%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-52同溫層堡壘轟炸機</t>
+    <t>B-52同温层堡垒轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-1%E6%A7%8D%E9%A8%8E%E5%85%B5%E6%88%B0%E7%95%A5%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-1槍騎兵戰略轟炸機</t>
+    <t>B-1枪骑兵战略轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CH-47%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>CH-47直升機</t>
+    <t>CH-47直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%95%E5%A5%91AH_MK1%E7%9B%B4%E6%98%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>阿帕契AH MK1直昇機</t>
+    <t>阿帕契AH MK1直昇机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/RAH-66%E5%8D%A1%E6%9B%BC%E5%A5%91%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>RAH-66卡曼契直升機</t>
+    <t>RAH-66卡曼契直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3247</t>
@@ -797,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3307%E5%B9%B3%E6%B5%81%E5%B1%A4%E5%AE%A2%E6%A9%9F</t>
   </si>
   <si>
-    <t>波音307平流層客機</t>
+    <t>波音307平流层客机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boeing_C-97_Stratofreighter</t>
@@ -857,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/KC-46%E7%A9%BA%E4%B8%AD%E5%8A%A0%E6%B2%B9%E6%A9%9F</t>
   </si>
   <si>
-    <t>KC-46空中加油機</t>
+    <t>KC-46空中加油机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/KC-767%E7%A9%BA%E4%B8%AD%E5%8A%A0%E6%B2%B9%E6%9C%BA</t>
@@ -869,13 +860,13 @@
     <t>https://zh.wikipedia.org/wiki/T-45%E8%92%BC%E9%B7%B9%E6%95%99%E7%B7%B4%E6%A9%9F</t>
   </si>
   <si>
-    <t>T-45蒼鷹教練機</t>
+    <t>T-45苍鹰教练机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/P-8%E6%B3%A2%E8%B3%BD%E9%A0%93%E6%B5%B7%E4%B8%8A%E5%B7%A1%E9%82%8F%E6%A9%9F</t>
   </si>
   <si>
-    <t>P-8波賽頓海上巡邏機</t>
+    <t>P-8波赛顿海上巡逻机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/E-6%E9%80%9A%E4%BF%A1%E4%B8%AD%E7%BB%A7%E6%9C%BA</t>
@@ -899,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/E-737%E7%A9%BA%E4%B8%AD%E9%A0%90%E8%AD%A6%E6%A9%9F</t>
   </si>
   <si>
-    <t>E-737空中預警機</t>
+    <t>E-737空中预警机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boeing_NC-135</t>
@@ -929,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/X-20%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-20試驗機</t>
+    <t>X-20试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3X-37</t>
@@ -947,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/YAL-1%E6%A9%9F%E8%BC%89%E9%9B%B7%E5%B0%84%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>YAL-1機載雷射系統</t>
+    <t>YAL-1机载雷射系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boeing_Bird_of_Prey</t>
@@ -965,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2183,7 +2174,7 @@
         <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>10</v>
@@ -2209,10 +2200,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>4</v>
@@ -2238,10 +2229,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>11</v>
@@ -2267,10 +2258,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2296,10 +2287,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2325,10 +2316,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2354,10 +2345,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2383,10 +2374,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2412,10 +2403,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G38" t="n">
         <v>23</v>
@@ -2441,10 +2432,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -2470,10 +2461,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2499,10 +2490,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -2528,10 +2519,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G42" t="n">
         <v>7</v>
@@ -2557,10 +2548,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2586,10 +2577,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -2615,10 +2606,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2644,10 +2635,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2673,10 +2664,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2702,10 +2693,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2731,10 +2722,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2760,10 +2751,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G50" t="n">
         <v>5</v>
@@ -2789,10 +2780,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2818,10 +2809,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2847,10 +2838,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2876,10 +2867,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2905,10 +2896,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2934,10 +2925,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2963,10 +2954,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2992,10 +2983,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3021,10 +3012,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3050,10 +3041,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3079,10 +3070,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3108,10 +3099,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G62" t="n">
         <v>83</v>
@@ -3137,10 +3128,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3166,10 +3157,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -3195,10 +3186,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3224,10 +3215,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3253,10 +3244,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3282,10 +3273,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F68" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3311,10 +3302,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3340,10 +3331,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G70" t="n">
         <v>7</v>
@@ -3369,10 +3360,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3398,10 +3389,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3427,10 +3418,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3456,10 +3447,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3485,10 +3476,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3514,10 +3505,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3543,10 +3534,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -3572,10 +3563,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3601,10 +3592,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3630,10 +3621,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3659,10 +3650,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3688,10 +3679,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3717,10 +3708,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3746,10 +3737,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3775,10 +3766,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3804,10 +3795,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3833,10 +3824,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3862,10 +3853,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3891,10 +3882,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3920,10 +3911,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G90" t="n">
         <v>5</v>
@@ -3949,10 +3940,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -3978,10 +3969,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4007,10 +3998,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4036,10 +4027,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4065,10 +4056,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4094,10 +4085,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4123,10 +4114,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4152,10 +4143,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G98" t="n">
         <v>5</v>
@@ -4181,10 +4172,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G99" t="n">
         <v>7</v>
@@ -4210,10 +4201,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4239,10 +4230,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4268,10 +4259,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G102" t="n">
         <v>6</v>
@@ -4297,10 +4288,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4326,10 +4317,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4355,10 +4346,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F105" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G105" t="n">
         <v>4</v>
@@ -4384,10 +4375,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4413,10 +4404,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4442,10 +4433,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4471,10 +4462,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4500,10 +4491,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4529,10 +4520,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4558,10 +4549,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4587,10 +4578,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4616,10 +4607,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G114" t="n">
         <v>6</v>
@@ -4645,10 +4636,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4674,10 +4665,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4703,10 +4694,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4732,10 +4723,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4761,10 +4752,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4790,10 +4781,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4819,10 +4810,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -4848,10 +4839,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4877,10 +4868,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4906,10 +4897,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4935,10 +4926,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4964,10 +4955,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4993,10 +4984,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5022,10 +5013,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5051,10 +5042,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5080,10 +5071,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5109,10 +5100,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5138,10 +5129,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5167,10 +5158,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5196,10 +5187,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5225,10 +5216,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5254,10 +5245,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5283,10 +5274,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5312,10 +5303,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5341,10 +5332,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5370,10 +5361,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -5399,10 +5390,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5428,10 +5419,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5457,10 +5448,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F143" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5486,10 +5477,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5515,10 +5506,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5544,10 +5535,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -5573,10 +5564,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5602,10 +5593,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5631,10 +5622,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5660,10 +5651,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5689,10 +5680,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F151" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5718,10 +5709,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5747,10 +5738,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5776,10 +5767,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5805,10 +5796,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5834,10 +5825,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5863,10 +5854,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5892,10 +5883,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5921,10 +5912,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5950,10 +5941,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -5979,10 +5970,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6008,10 +5999,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6037,10 +6028,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6066,10 +6057,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6095,10 +6086,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6124,10 +6115,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G166" t="n">
         <v>3</v>
@@ -6153,10 +6144,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
